--- a/Example- Demo/5US Platform/Components/Poses1.xlsx
+++ b/Example- Demo/5US Platform/Components/Poses1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sshel\Documents\GitHub\5ss-platform-synthesis\Example- Innocenti\5US Platform Innocenti-1\Components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sshel\Documents\GitHub\5ss-platform-synthesis\Example- Demo\5US Platform\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6855BDC-66B7-4D7F-B9CD-2F2C875A47CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0EE91A-290A-49FE-9EFD-A1BD461DE966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>0</v>
+        <v>-2.50664</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.8799000000000001</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7.86653</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -413,13 +413,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>1</v>
+        <v>4.4781899999999997</v>
       </c>
       <c r="B3">
-        <v>-0.74229999999999996</v>
+        <v>-8.9184999999999999</v>
       </c>
       <c r="C3">
-        <v>-0.13370000000000001</v>
+        <v>8.6273499999999999</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -427,13 +427,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>0.31819999999999998</v>
+        <v>-2.2709000000000001</v>
       </c>
       <c r="B4">
-        <v>-0.50849999999999995</v>
+        <v>0.39537800000000001</v>
       </c>
       <c r="C4">
-        <v>-0.79220000000000002</v>
+        <v>-4.8191800000000002</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -441,13 +441,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>-0.17879999999999999</v>
+        <v>-1.32134</v>
       </c>
       <c r="B5">
-        <v>-1.7842</v>
+        <v>-7.5064900000000003</v>
       </c>
       <c r="C5">
-        <v>-1.0428999999999999</v>
+        <v>-3.55002</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -455,13 +455,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>-1.258</v>
+        <v>-3.5464000000000002</v>
       </c>
       <c r="B6">
-        <v>0.83620000000000005</v>
+        <v>-9.6834299999999995</v>
       </c>
       <c r="C6">
-        <v>-1.4992000000000001</v>
+        <v>9.7983799999999999</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -469,13 +469,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>-3.5939000000000001</v>
+        <v>1.94974</v>
       </c>
       <c r="B7">
-        <v>2.7282999999999999</v>
+        <v>3.6173099999999998</v>
       </c>
       <c r="C7">
-        <v>-2.0333999999999999</v>
+        <v>2.8397299999999999</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -483,13 +483,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>-4.9700000000000001E-2</v>
+        <v>-2.83135</v>
       </c>
       <c r="B8">
-        <v>0.56999999999999995</v>
+        <v>-0.41653600000000002</v>
       </c>
       <c r="C8">
-        <v>-1.4858</v>
+        <v>6.5642500000000004</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
